--- a/empinfo/YouChul.xlsx
+++ b/empinfo/YouChul.xlsx
@@ -468,60 +468,60 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cabinet</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>refrigerator</t>
+          <t>copier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>heater</t>
+          <t>printer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
